--- a/level-3/codeforces-phase-3-gym-contests/codeforces-phase 3-gym-contests.xlsx
+++ b/level-3/codeforces-phase-3-gym-contests/codeforces-phase 3-gym-contests.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978787BA-F12C-44EC-B634-7A12D9B4F8F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 contest" sheetId="1" r:id="rId1"/>
+    <sheet name="level 3 gym contests" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -852,7 +853,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1740,7 +1741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1748,17 +1749,17 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="108.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="15.140625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="19" customWidth="1"/>
+    <col min="1" max="1" width="108.5546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15.109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="4">
         <f>COUNTA(B3:B893)</f>
@@ -1823,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>195</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>197</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>199</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>201</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>203</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>205</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>207</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>209</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>210</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>30</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>212</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>35</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>42</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>44</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>46</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>48</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>50</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>52</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>54</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>214</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>216</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>218</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>219</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>220</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>222</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>56</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>58</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>64</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>70</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>72</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>74</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>76</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>78</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>80</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>82</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>84</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>86</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>90</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>252</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>253</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>262</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>263</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>256</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>257</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>264</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>66</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>92</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>94</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>224</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>96</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>141</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>259</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>260</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>240</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>103</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>107</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>109</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>111</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>115</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>117</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>119</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>121</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>123</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>125</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>127</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>129</v>
       </c>
@@ -3566,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>131</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>113</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>101</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>99</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>137</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>139</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>143</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>145</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>147</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>149</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>151</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>153</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>155</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>158</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>160</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>163</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>173</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>177</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>171</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>169</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>167</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>165</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>175</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>183</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>181</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>179</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>188</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>228</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>230</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>226</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>255</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>273</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>250</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>251</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>232</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>234</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>236</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>238</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>242</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>244</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>246</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>248</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>258</v>
       </c>
@@ -4469,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>261</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>265</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>266</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>267</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
         <v>268</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>254</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>271</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10"/>
       <c r="B136" s="8"/>
       <c r="C136" s="21"/>
@@ -4628,7 +4629,7 @@
       <c r="I136" s="17"/>
       <c r="J136" s="16"/>
     </row>
-    <row r="137" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10"/>
       <c r="B137" s="8"/>
       <c r="C137" s="22"/>
@@ -4640,7 +4641,7 @@
       <c r="I137" s="18"/>
       <c r="J137" s="16"/>
     </row>
-    <row r="138" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10"/>
       <c r="B138" s="8"/>
       <c r="C138" s="21"/>
@@ -4652,7 +4653,7 @@
       <c r="I138" s="18"/>
       <c r="J138" s="16"/>
     </row>
-    <row r="139" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="8"/>
       <c r="C139" s="22"/>
@@ -4664,7 +4665,7 @@
       <c r="I139" s="18"/>
       <c r="J139" s="16"/>
     </row>
-    <row r="140" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10"/>
       <c r="B140" s="8"/>
       <c r="C140" s="21"/>
@@ -4676,7 +4677,7 @@
       <c r="I140" s="18"/>
       <c r="J140" s="16"/>
     </row>
-    <row r="141" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10"/>
       <c r="B141" s="8"/>
       <c r="C141" s="22"/>
@@ -4688,7 +4689,7 @@
       <c r="I141" s="18"/>
       <c r="J141" s="16"/>
     </row>
-    <row r="142" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10"/>
       <c r="B142" s="8"/>
       <c r="C142" s="21"/>
@@ -4700,7 +4701,7 @@
       <c r="I142" s="17"/>
       <c r="J142" s="16"/>
     </row>
-    <row r="143" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10"/>
       <c r="B143" s="8"/>
       <c r="C143" s="22"/>
@@ -4712,7 +4713,7 @@
       <c r="I143" s="18"/>
       <c r="J143" s="16"/>
     </row>
-    <row r="144" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10"/>
       <c r="B144" s="8"/>
       <c r="C144" s="21"/>
@@ -4724,7 +4725,7 @@
       <c r="I144" s="18"/>
       <c r="J144" s="16"/>
     </row>
-    <row r="145" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="8"/>
       <c r="C145" s="22"/>
@@ -4736,7 +4737,7 @@
       <c r="I145" s="17"/>
       <c r="J145" s="16"/>
     </row>
-    <row r="146" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="8"/>
       <c r="C146" s="21"/>
@@ -4748,7 +4749,7 @@
       <c r="I146" s="18"/>
       <c r="J146" s="16"/>
     </row>
-    <row r="147" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10"/>
       <c r="B147" s="8"/>
       <c r="C147" s="22"/>
@@ -4760,7 +4761,7 @@
       <c r="I147" s="18"/>
       <c r="J147" s="16"/>
     </row>
-    <row r="148" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10"/>
       <c r="B148" s="8"/>
       <c r="C148" s="21"/>
@@ -4772,7 +4773,7 @@
       <c r="I148" s="18"/>
       <c r="J148" s="16"/>
     </row>
-    <row r="149" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="8"/>
       <c r="C149" s="22"/>
@@ -4784,7 +4785,7 @@
       <c r="I149" s="17"/>
       <c r="J149" s="16"/>
     </row>
-    <row r="150" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="8"/>
       <c r="C150" s="21"/>
@@ -4796,7 +4797,7 @@
       <c r="I150" s="17"/>
       <c r="J150" s="16"/>
     </row>
-    <row r="151" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10"/>
       <c r="B151" s="8"/>
       <c r="C151" s="22"/>
@@ -4808,7 +4809,7 @@
       <c r="I151" s="18"/>
       <c r="J151" s="16"/>
     </row>
-    <row r="152" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10"/>
       <c r="B152" s="8"/>
       <c r="C152" s="21"/>
@@ -4820,7 +4821,7 @@
       <c r="I152" s="18"/>
       <c r="J152" s="16"/>
     </row>
-    <row r="153" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10"/>
       <c r="B153" s="8"/>
       <c r="C153" s="22"/>
@@ -4832,7 +4833,7 @@
       <c r="I153" s="18"/>
       <c r="J153" s="16"/>
     </row>
-    <row r="154" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10"/>
       <c r="B154" s="8"/>
       <c r="C154" s="21"/>
@@ -4844,7 +4845,7 @@
       <c r="I154" s="17"/>
       <c r="J154" s="16"/>
     </row>
-    <row r="155" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10"/>
       <c r="B155" s="8"/>
       <c r="C155" s="22"/>
@@ -4856,7 +4857,7 @@
       <c r="I155" s="17"/>
       <c r="J155" s="16"/>
     </row>
-    <row r="156" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
       <c r="B156" s="8"/>
       <c r="C156" s="21"/>
@@ -4868,7 +4869,7 @@
       <c r="I156" s="18"/>
       <c r="J156" s="16"/>
     </row>
-    <row r="157" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="8"/>
       <c r="C157" s="22"/>
@@ -4880,7 +4881,7 @@
       <c r="I157" s="18"/>
       <c r="J157" s="16"/>
     </row>
-    <row r="158" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="8"/>
       <c r="C158" s="21"/>
@@ -4892,7 +4893,7 @@
       <c r="I158" s="18"/>
       <c r="J158" s="16"/>
     </row>
-    <row r="159" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="8"/>
       <c r="C159" s="22"/>
@@ -4904,7 +4905,7 @@
       <c r="I159" s="18"/>
       <c r="J159" s="16"/>
     </row>
-    <row r="160" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="B160" s="8"/>
       <c r="C160" s="21"/>
@@ -4916,7 +4917,7 @@
       <c r="I160" s="17"/>
       <c r="J160" s="16"/>
     </row>
-    <row r="161" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="8"/>
       <c r="C161" s="22"/>
@@ -4928,7 +4929,7 @@
       <c r="I161" s="18"/>
       <c r="J161" s="16"/>
     </row>
-    <row r="162" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="8"/>
       <c r="C162" s="21"/>
@@ -4940,7 +4941,7 @@
       <c r="I162" s="18"/>
       <c r="J162" s="16"/>
     </row>
-    <row r="163" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="8"/>
       <c r="C163" s="22"/>
@@ -4952,7 +4953,7 @@
       <c r="I163" s="18"/>
       <c r="J163" s="16"/>
     </row>
-    <row r="164" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="8"/>
       <c r="C164" s="21"/>
@@ -4964,7 +4965,7 @@
       <c r="I164" s="18"/>
       <c r="J164" s="16"/>
     </row>
-    <row r="165" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="8"/>
       <c r="C165" s="22"/>
@@ -4976,7 +4977,7 @@
       <c r="I165" s="18"/>
       <c r="J165" s="16"/>
     </row>
-    <row r="166" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10"/>
       <c r="B166" s="8"/>
       <c r="C166" s="21"/>
@@ -4988,7 +4989,7 @@
       <c r="I166" s="18"/>
       <c r="J166" s="16"/>
     </row>
-    <row r="167" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
       <c r="B167" s="8"/>
       <c r="C167" s="22"/>
@@ -5000,7 +5001,7 @@
       <c r="I167" s="18"/>
       <c r="J167" s="16"/>
     </row>
-    <row r="168" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="8"/>
       <c r="C168" s="21"/>
@@ -5012,7 +5013,7 @@
       <c r="I168" s="18"/>
       <c r="J168" s="16"/>
     </row>
-    <row r="169" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="8"/>
       <c r="C169" s="22"/>
@@ -5024,7 +5025,7 @@
       <c r="I169" s="18"/>
       <c r="J169" s="16"/>
     </row>
-    <row r="170" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
       <c r="B170" s="8"/>
       <c r="C170" s="17"/>
@@ -5036,7 +5037,7 @@
       <c r="I170" s="18"/>
       <c r="J170" s="16"/>
     </row>
-    <row r="171" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -5048,7 +5049,7 @@
       <c r="I171" s="18"/>
       <c r="J171" s="16"/>
     </row>
-    <row r="172" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -5060,7 +5061,7 @@
       <c r="I172" s="18"/>
       <c r="J172" s="16"/>
     </row>
-    <row r="173" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -5072,7 +5073,7 @@
       <c r="I173" s="18"/>
       <c r="J173" s="16"/>
     </row>
-    <row r="174" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -5084,7 +5085,7 @@
       <c r="I174" s="18"/>
       <c r="J174" s="16"/>
     </row>
-    <row r="175" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -5096,7 +5097,7 @@
       <c r="I175" s="18"/>
       <c r="J175" s="16"/>
     </row>
-    <row r="176" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -5108,7 +5109,7 @@
       <c r="I176" s="18"/>
       <c r="J176" s="16"/>
     </row>
-    <row r="177" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -5120,7 +5121,7 @@
       <c r="I177" s="18"/>
       <c r="J177" s="16"/>
     </row>
-    <row r="178" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -5132,7 +5133,7 @@
       <c r="I178" s="18"/>
       <c r="J178" s="16"/>
     </row>
-    <row r="179" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -5144,7 +5145,7 @@
       <c r="I179" s="18"/>
       <c r="J179" s="16"/>
     </row>
-    <row r="180" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -5156,7 +5157,7 @@
       <c r="I180" s="18"/>
       <c r="J180" s="16"/>
     </row>
-    <row r="181" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -5168,7 +5169,7 @@
       <c r="I181" s="18"/>
       <c r="J181" s="16"/>
     </row>
-    <row r="182" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -5180,7 +5181,7 @@
       <c r="I182" s="19"/>
       <c r="J182" s="19"/>
     </row>
-    <row r="183" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -5192,7 +5193,7 @@
       <c r="I183" s="19"/>
       <c r="J183" s="19"/>
     </row>
-    <row r="184" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -5204,7 +5205,7 @@
       <c r="I184" s="19"/>
       <c r="J184" s="19"/>
     </row>
-    <row r="185" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -5216,7 +5217,7 @@
       <c r="I185" s="19"/>
       <c r="J185" s="19"/>
     </row>
-    <row r="186" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -5228,7 +5229,7 @@
       <c r="I186" s="19"/>
       <c r="J186" s="19"/>
     </row>
-    <row r="187" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -5240,7 +5241,7 @@
       <c r="I187" s="19"/>
       <c r="J187" s="19"/>
     </row>
-    <row r="188" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -5252,7 +5253,7 @@
       <c r="I188" s="19"/>
       <c r="J188" s="19"/>
     </row>
-    <row r="189" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -5264,7 +5265,7 @@
       <c r="I189" s="19"/>
       <c r="J189" s="19"/>
     </row>
-    <row r="190" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -5276,7 +5277,7 @@
       <c r="I190" s="19"/>
       <c r="J190" s="19"/>
     </row>
-    <row r="191" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -5288,7 +5289,7 @@
       <c r="I191" s="19"/>
       <c r="J191" s="19"/>
     </row>
-    <row r="192" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -5300,7 +5301,7 @@
       <c r="I192" s="19"/>
       <c r="J192" s="19"/>
     </row>
-    <row r="193" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -5312,7 +5313,7 @@
       <c r="I193" s="19"/>
       <c r="J193" s="19"/>
     </row>
-    <row r="194" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -5324,7 +5325,7 @@
       <c r="I194" s="19"/>
       <c r="J194" s="19"/>
     </row>
-    <row r="195" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -5336,7 +5337,7 @@
       <c r="I195" s="19"/>
       <c r="J195" s="19"/>
     </row>
-    <row r="196" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -5348,7 +5349,7 @@
       <c r="I196" s="19"/>
       <c r="J196" s="19"/>
     </row>
-    <row r="197" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -5360,7 +5361,7 @@
       <c r="I197" s="19"/>
       <c r="J197" s="19"/>
     </row>
-    <row r="198" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -5372,7 +5373,7 @@
       <c r="I198" s="19"/>
       <c r="J198" s="19"/>
     </row>
-    <row r="199" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -5384,7 +5385,7 @@
       <c r="I199" s="19"/>
       <c r="J199" s="19"/>
     </row>
-    <row r="200" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -5396,7 +5397,7 @@
       <c r="I200" s="19"/>
       <c r="J200" s="19"/>
     </row>
-    <row r="201" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -5408,11 +5409,11 @@
       <c r="I201" s="19"/>
       <c r="J201" s="19"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A230:I237">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A230:I237">
     <sortCondition ref="C230:C237"/>
   </sortState>
   <mergeCells count="3">
@@ -5681,57 +5682,57 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B18" r:id="rId4"/>
-    <hyperlink ref="B19" r:id="rId5"/>
-    <hyperlink ref="B20" r:id="rId6"/>
-    <hyperlink ref="B21" r:id="rId7"/>
-    <hyperlink ref="B22" r:id="rId8"/>
-    <hyperlink ref="B23" r:id="rId9"/>
-    <hyperlink ref="B24" r:id="rId10"/>
-    <hyperlink ref="B26" r:id="rId11"/>
-    <hyperlink ref="B38" r:id="rId12"/>
-    <hyperlink ref="B39" r:id="rId13"/>
-    <hyperlink ref="B40" r:id="rId14"/>
-    <hyperlink ref="B41" r:id="rId15"/>
-    <hyperlink ref="B42" r:id="rId16"/>
-    <hyperlink ref="B43" r:id="rId17"/>
-    <hyperlink ref="B68" r:id="rId18"/>
-    <hyperlink ref="B115" r:id="rId19"/>
-    <hyperlink ref="B113" r:id="rId20"/>
-    <hyperlink ref="B114" r:id="rId21"/>
-    <hyperlink ref="B120" r:id="rId22"/>
-    <hyperlink ref="B121" r:id="rId23"/>
-    <hyperlink ref="B122" r:id="rId24"/>
-    <hyperlink ref="B123" r:id="rId25"/>
-    <hyperlink ref="B73" r:id="rId26"/>
-    <hyperlink ref="B124" r:id="rId27"/>
-    <hyperlink ref="B125" r:id="rId28"/>
-    <hyperlink ref="B126" r:id="rId29"/>
-    <hyperlink ref="B127" r:id="rId30"/>
-    <hyperlink ref="B118" r:id="rId31"/>
-    <hyperlink ref="B119" r:id="rId32"/>
-    <hyperlink ref="B58" r:id="rId33"/>
-    <hyperlink ref="B59" r:id="rId34"/>
-    <hyperlink ref="B116" r:id="rId35"/>
-    <hyperlink ref="B62" r:id="rId36"/>
-    <hyperlink ref="B63" r:id="rId37"/>
-    <hyperlink ref="B128" r:id="rId38"/>
-    <hyperlink ref="B87" r:id="rId39"/>
-    <hyperlink ref="B71" r:id="rId40"/>
-    <hyperlink ref="B72" r:id="rId41"/>
-    <hyperlink ref="B129" r:id="rId42"/>
-    <hyperlink ref="B60" r:id="rId43"/>
-    <hyperlink ref="B61" r:id="rId44"/>
-    <hyperlink ref="B64" r:id="rId45"/>
-    <hyperlink ref="B130" r:id="rId46"/>
-    <hyperlink ref="B131" r:id="rId47"/>
-    <hyperlink ref="B132" r:id="rId48"/>
-    <hyperlink ref="B133" r:id="rId49"/>
-    <hyperlink ref="B134" r:id="rId50"/>
-    <hyperlink ref="B135" r:id="rId51"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B39" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B40" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B41" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B42" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B43" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B68" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B115" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B113" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B114" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B120" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B121" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B122" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B123" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B73" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B124" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B125" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B126" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B127" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B118" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B119" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B59" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B116" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B62" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B128" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B87" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B71" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B72" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B129" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B60" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B61" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B64" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B130" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B131" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B132" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B133" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B134" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B135" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId52"/>

--- a/level-3/codeforces-phase-3-gym-contests/codeforces-phase 3-gym-contests.xlsx
+++ b/level-3/codeforces-phase-3-gym-contests/codeforces-phase 3-gym-contests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978787BA-F12C-44EC-B634-7A12D9B4F8F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5599DF2-41EE-4369-8C22-C5FD8B637A1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>Contest Link</t>
   </si>
@@ -848,6 +848,132 @@
   </si>
   <si>
     <t>Learning Time in (min)</t>
+  </si>
+  <si>
+    <t>Asu Coding Cup 4</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/102397</t>
+  </si>
+  <si>
+    <t>II Simulado Ingressantes</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/101744</t>
+  </si>
+  <si>
+    <t>UFBA - DSU Training Contest</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/102078</t>
+  </si>
+  <si>
+    <t>Amazalgo 2018 Practice Contest</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/101883</t>
+  </si>
+  <si>
+    <t>Amazalgo Uni 2019 Practice Contest</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/102212</t>
+  </si>
+  <si>
+    <t>III USP Freshmen Contest</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/101375</t>
+  </si>
+  <si>
+    <t>SUFE ICPC Team Formation Test</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/102388</t>
+  </si>
+  <si>
+    <t>hebron-code-jam 2019</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/102157</t>
+  </si>
+  <si>
+    <t>ACM ICPC, JUST Collegiate Programming Contest (2018)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/101853</t>
+  </si>
+  <si>
+    <t>2017 JUST Programming Contest 3.0</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/101502</t>
+  </si>
+  <si>
+    <t>2017 JUST Programming Contest 4.0</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/101532</t>
+  </si>
+  <si>
+    <t>Litseyo`quvchilaruchun</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/101306</t>
+  </si>
+  <si>
+    <t>2019 JUST Programming Contest</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/102152</t>
+  </si>
+  <si>
+    <t>2005-2006 ACM-ICPC East Central North America Regional Contest</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/100650</t>
+  </si>
+  <si>
+    <t>2015 Syrian Private Universities Collegiate Programming Contest</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/101020</t>
+  </si>
+  <si>
+    <t>II USP Freshmen Contest</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/100985</t>
+  </si>
+  <si>
+    <t>Innopolis Open, Elimination round, 2016-2017</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/101182</t>
+  </si>
+  <si>
+    <t>2016 Al-Baath University Training Camp Contest-1</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/101028</t>
+  </si>
+  <si>
+    <t>2015-2016 ACM-ICPC Pacific Northwest Regional Contest</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/100819</t>
+  </si>
+  <si>
+    <t>The 2019 University of Jordan Collegiate Programming Contest</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/102267</t>
+  </si>
+  <si>
+    <t>IME++ Starters Try-outs 2019</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/102254</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1096,12 +1222,25 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1742,7 +1881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1794,13 +1933,13 @@
     <row r="2" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="4">
-        <f>COUNTA(B3:B893)</f>
+        <f>COUNTA(B24:B914)</f>
         <v>133</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="15" t="e">
-        <f t="shared" ref="E2:J2" si="0">AVERAGE(E3:E181)</f>
+        <f t="shared" ref="E2:J2" si="0">AVERAGE(E24:E202)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F2" s="15" t="e">
@@ -1824,456 +1963,456 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="D3" s="17"/>
+        <v>277</v>
+      </c>
+      <c r="C3" s="18">
+        <v>3</v>
+      </c>
+      <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="16">
+      <c r="J3" s="27">
         <f>SUM(E3:I3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>24</v>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="16"/>
+        <v>279</v>
+      </c>
+      <c r="C4" s="27">
+        <v>5</v>
+      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="16">
-        <f t="shared" ref="J4:J13" si="1">SUM(E4:I4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>195</v>
+      <c r="J4" s="27">
+        <f>SUM(E4:I4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="D5" s="16"/>
+        <v>281</v>
+      </c>
+      <c r="C5" s="18">
+        <v>5</v>
+      </c>
+      <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>9</v>
+      <c r="J5" s="27">
+        <f>SUM(E5:I5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="17">
-        <v>2</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>197</v>
+        <v>283</v>
+      </c>
+      <c r="C6" s="28">
+        <v>7.5</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="27">
+        <f>SUM(E6:I6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="16">
-        <v>2</v>
-      </c>
-      <c r="D7" s="16"/>
+        <v>285</v>
+      </c>
+      <c r="C7" s="28">
+        <v>10.5</v>
+      </c>
+      <c r="D7" s="27"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>199</v>
+      <c r="J7" s="27">
+        <f>SUM(E7:I7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="D8" s="17"/>
+        <v>287</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+      <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="J8" s="27">
+        <f>SUM(E8:I8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="27">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="16">
-        <v>3</v>
-      </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>5</v>
+      <c r="J9" s="27">
+        <f>SUM(E9:I9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="17">
+        <v>291</v>
+      </c>
+      <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>7</v>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="27">
+        <f>SUM(E10:I10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="16">
-        <v>3</v>
-      </c>
-      <c r="D11" s="16"/>
+        <v>293</v>
+      </c>
+      <c r="C11" s="27">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>13</v>
+      <c r="J11" s="27">
+        <f>SUM(E11:I11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="17">
-        <v>3</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>295</v>
+      </c>
+      <c r="C12" s="27">
+        <v>4</v>
+      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="27">
+        <f>SUM(E12:I12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="16">
-        <v>3</v>
-      </c>
-      <c r="D13" s="16"/>
+        <v>297</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>17</v>
+      <c r="J13" s="27">
+        <f>SUM(E13:I13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>298</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="17">
-        <v>3</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16">
-        <f t="shared" ref="J14:J45" si="2">SUM(E14:I14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>19</v>
+        <v>299</v>
+      </c>
+      <c r="C14" s="18">
+        <v>4</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="27">
+        <f>SUM(E14:I14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>300</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="16">
-        <v>3</v>
-      </c>
-      <c r="D15" s="16"/>
+        <v>301</v>
+      </c>
+      <c r="C15" s="27">
+        <v>4</v>
+      </c>
+      <c r="D15" s="27"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>28</v>
+      <c r="J15" s="27">
+        <f>SUM(E15:I15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="16"/>
+        <v>303</v>
+      </c>
+      <c r="C16" s="18">
+        <v>5</v>
+      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
-      <c r="J16" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>22</v>
+      <c r="J16" s="27">
+        <f>SUM(E16:I16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="17">
-        <v>3</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>201</v>
+        <v>305</v>
+      </c>
+      <c r="C17" s="27">
+        <v>5</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="27">
+        <f>SUM(E17:I17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="17">
-        <v>3</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>203</v>
+        <v>307</v>
+      </c>
+      <c r="C18" s="18">
+        <v>5</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="27">
+        <f>SUM(E18:I18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="16">
-        <v>3</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>205</v>
+        <v>309</v>
+      </c>
+      <c r="C19" s="27">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="27">
+        <f>SUM(E19:I19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="16">
-        <v>3</v>
-      </c>
-      <c r="D20" s="16"/>
+        <v>311</v>
+      </c>
+      <c r="C20" s="27">
+        <v>5</v>
+      </c>
+      <c r="D20" s="27"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
-      <c r="J20" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>11</v>
+      <c r="J20" s="27">
+        <f>SUM(E20:I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="17">
-        <v>3</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>207</v>
+        <v>313</v>
+      </c>
+      <c r="C21" s="27">
+        <v>5</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="27">
+        <f>SUM(E21:I21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="16">
-        <v>3</v>
-      </c>
-      <c r="D22" s="16"/>
+        <v>315</v>
+      </c>
+      <c r="C22" s="18">
+        <v>5</v>
+      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="27">
+        <f>SUM(E22:I22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>209</v>
+        <v>316</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="17">
-        <v>3</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="C23" s="27">
+        <v>5</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="27">
+        <f>SUM(E23:I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="17">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1.5</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
@@ -2282,61 +2421,61 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(E24:I24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="17">
-        <v>3</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="C25" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J25:J34" si="1">SUM(E25:I25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C26" s="22">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C27" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -2345,19 +2484,19 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
       <c r="J27" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="C28" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="18"/>
@@ -2366,124 +2505,124 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="17">
+        <v>200</v>
+      </c>
+      <c r="C29" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="17">
-        <v>4</v>
-      </c>
-      <c r="D30" s="17"/>
+      <c r="C30" s="16">
+        <v>3</v>
+      </c>
+      <c r="D30" s="16"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="16">
-        <v>4</v>
-      </c>
-      <c r="D31" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+      <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="17">
-        <v>4</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="C32" s="16">
+        <v>3</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="16">
-        <v>4</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C34" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="18"/>
@@ -2492,84 +2631,84 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C35" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J35:J66" si="2">SUM(E35:I35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C36" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="17">
-        <v>4</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="C37" s="16">
+        <v>3</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" s="16">
-        <v>4</v>
-      </c>
-      <c r="D38" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="C38" s="17">
+        <v>3</v>
+      </c>
+      <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -2580,120 +2719,120 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C39" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="C40" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="16"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="17">
-        <v>4</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+        <v>206</v>
+      </c>
+      <c r="C41" s="16">
+        <v>3</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
       <c r="J41" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C42" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="C42" s="17">
+        <v>3</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" s="21">
-        <v>4.5</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+        <v>208</v>
+      </c>
+      <c r="C43" s="16">
+        <v>3</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
       <c r="J43" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>56</v>
+    <row r="44" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C44" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -2706,78 +2845,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="16">
-        <v>5</v>
-      </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+        <v>211</v>
+      </c>
+      <c r="C45" s="17">
+        <v>3</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
       <c r="J45" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C46" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="16">
-        <f t="shared" ref="J46:J77" si="3">SUM(E46:I46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="16">
-        <v>5</v>
+        <v>213</v>
+      </c>
+      <c r="C47" s="22">
+        <v>3.5</v>
       </c>
       <c r="D47" s="16"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C48" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
@@ -2786,40 +2925,40 @@
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C49" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
       <c r="J49" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C50" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
@@ -2828,103 +2967,103 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="16">
-        <v>5</v>
-      </c>
-      <c r="D51" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="C51" s="17">
+        <v>4</v>
+      </c>
+      <c r="D51" s="17"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="17">
-        <v>5</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="C52" s="16">
+        <v>4</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="16">
-        <v>5</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="C53" s="17">
+        <v>4</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="17">
-        <v>5</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="C54" s="16">
+        <v>4</v>
+      </c>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C55" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="18"/>
@@ -2933,166 +3072,166 @@
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C56" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
       <c r="J56" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="C57" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" s="16"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
       <c r="J57" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>252</v>
+        <v>54</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="16">
-        <v>5</v>
-      </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="C58" s="17">
+        <v>4</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>253</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="17">
-        <v>5</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
+        <v>215</v>
+      </c>
+      <c r="C59" s="16">
+        <v>4</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
-        <v>262</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="16">
-        <v>5</v>
-      </c>
-      <c r="D60" s="16"/>
+        <v>217</v>
+      </c>
+      <c r="C60" s="17">
+        <v>4</v>
+      </c>
+      <c r="D60" s="17"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
       <c r="J60" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>263</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="17">
-        <v>5</v>
-      </c>
-      <c r="D61" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="C61" s="16">
+        <v>4</v>
+      </c>
+      <c r="D61" s="16"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>256</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C62" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="17"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="16">
-        <v>5</v>
+        <v>221</v>
+      </c>
+      <c r="C63" s="22">
+        <v>4.5</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="18"/>
@@ -3101,105 +3240,105 @@
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="16">
-        <v>5</v>
-      </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
+        <v>223</v>
+      </c>
+      <c r="C64" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="16">
-        <v>5</v>
-      </c>
-      <c r="D65" s="16"/>
+        <v>57</v>
+      </c>
+      <c r="C65" s="17">
+        <v>5</v>
+      </c>
+      <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="17">
-        <v>5</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="C66" s="16">
+        <v>5</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C67" s="17">
         <v>5</v>
       </c>
       <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
       <c r="J67" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J67:J98" si="3">SUM(E67:I67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C68" s="17">
-        <v>5</v>
-      </c>
-      <c r="D68" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="C68" s="16">
+        <v>5</v>
+      </c>
+      <c r="D68" s="16"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -3210,38 +3349,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="16">
-        <v>5</v>
-      </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="C69" s="17">
+        <v>5</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="17">
-        <v>5</v>
-      </c>
-      <c r="D70" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="C70" s="16">
+        <v>5</v>
+      </c>
+      <c r="D70" s="16"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
@@ -3252,33 +3391,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11" t="s">
-        <v>259</v>
+    <row r="71" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="16">
-        <v>5</v>
-      </c>
-      <c r="D71" s="16"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
+        <v>75</v>
+      </c>
+      <c r="C71" s="17">
+        <v>5</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C72" s="16">
         <v>5</v>
@@ -3294,12 +3433,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>240</v>
+    <row r="73" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="C73" s="17">
         <v>5</v>
@@ -3315,17 +3454,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="17">
-        <v>5</v>
-      </c>
-      <c r="D74" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="C74" s="16">
+        <v>5</v>
+      </c>
+      <c r="D74" s="16"/>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
@@ -3336,17 +3475,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>107</v>
+    <row r="75" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="16">
-        <v>5</v>
-      </c>
-      <c r="D75" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="C75" s="17">
+        <v>5</v>
+      </c>
+      <c r="D75" s="17"/>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
@@ -3357,12 +3496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C76" s="16">
         <v>5</v>
@@ -3378,12 +3517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C77" s="17">
         <v>5</v>
@@ -3399,12 +3538,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C78" s="16">
         <v>5</v>
@@ -3416,121 +3555,121 @@
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
       <c r="J78" s="16">
-        <f t="shared" ref="J78:J109" si="4">SUM(E78:I78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="17">
-        <v>5</v>
-      </c>
-      <c r="D79" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="C79" s="16">
+        <v>5</v>
+      </c>
+      <c r="D79" s="16"/>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
       <c r="J79" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" s="16">
-        <v>5</v>
-      </c>
-      <c r="D80" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="C80" s="17">
+        <v>5</v>
+      </c>
+      <c r="D80" s="17"/>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
       <c r="J80" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
-        <v>121</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
+        <v>262</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="17">
-        <v>5</v>
-      </c>
-      <c r="D81" s="17"/>
+        <v>88</v>
+      </c>
+      <c r="C81" s="16">
+        <v>5</v>
+      </c>
+      <c r="D81" s="16"/>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
       <c r="J81" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
-        <v>123</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C82" s="16">
-        <v>5</v>
-      </c>
-      <c r="D82" s="16"/>
+        <v>89</v>
+      </c>
+      <c r="C82" s="17">
+        <v>5</v>
+      </c>
+      <c r="D82" s="17"/>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
       <c r="J82" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C83" s="17">
         <v>5</v>
       </c>
       <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
       <c r="J83" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C84" s="16">
         <v>5</v>
@@ -3542,100 +3681,100 @@
       <c r="H84" s="18"/>
       <c r="I84" s="18"/>
       <c r="J84" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" s="17">
-        <v>5</v>
-      </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="C85" s="16">
+        <v>5</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
       <c r="J85" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="17">
-        <v>5</v>
-      </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
+        <v>67</v>
+      </c>
+      <c r="C86" s="16">
+        <v>5</v>
+      </c>
+      <c r="D86" s="16"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
       <c r="J86" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" s="16">
-        <v>5</v>
-      </c>
-      <c r="D87" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="C87" s="17">
+        <v>5</v>
+      </c>
+      <c r="D87" s="17"/>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
       <c r="I87" s="18"/>
       <c r="J87" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C88" s="16">
-        <v>5</v>
-      </c>
-      <c r="D88" s="16"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="C88" s="17">
+        <v>5</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="C89" s="17">
         <v>5</v>
@@ -3647,79 +3786,79 @@
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
       <c r="J89" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="17">
-        <v>5</v>
-      </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
+        <v>97</v>
+      </c>
+      <c r="C90" s="16">
+        <v>5</v>
+      </c>
+      <c r="D90" s="16"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
       <c r="J90" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" s="16">
-        <v>5</v>
-      </c>
-      <c r="D91" s="16"/>
+        <v>142</v>
+      </c>
+      <c r="C91" s="17">
+        <v>5</v>
+      </c>
+      <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
       <c r="J91" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
-        <v>143</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C92" s="17">
-        <v>5</v>
-      </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
+        <v>105</v>
+      </c>
+      <c r="C92" s="16">
+        <v>5</v>
+      </c>
+      <c r="D92" s="16"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
       <c r="J92" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C93" s="16">
         <v>5</v>
@@ -3731,16 +3870,16 @@
       <c r="H93" s="18"/>
       <c r="I93" s="18"/>
       <c r="J93" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
-        <v>147</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="C94" s="17">
         <v>5</v>
@@ -3752,58 +3891,58 @@
       <c r="H94" s="18"/>
       <c r="I94" s="18"/>
       <c r="J94" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C95" s="16">
-        <v>5</v>
-      </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="C95" s="17">
+        <v>5</v>
+      </c>
+      <c r="D95" s="17"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
       <c r="J95" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
-        <v>151</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A96" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C96" s="17">
-        <v>5</v>
-      </c>
-      <c r="D96" s="17"/>
+        <v>108</v>
+      </c>
+      <c r="C96" s="16">
+        <v>5</v>
+      </c>
+      <c r="D96" s="16"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
       <c r="I96" s="18"/>
       <c r="J96" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
-        <v>153</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C97" s="16">
         <v>5</v>
@@ -3815,100 +3954,100 @@
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
       <c r="J97" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
-        <v>155</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="16">
-        <v>5</v>
-      </c>
-      <c r="D98" s="16"/>
+        <v>112</v>
+      </c>
+      <c r="C98" s="17">
+        <v>5</v>
+      </c>
+      <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
       <c r="J98" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C99" s="17">
-        <v>5</v>
-      </c>
-      <c r="D99" s="17"/>
+        <v>116</v>
+      </c>
+      <c r="C99" s="16">
+        <v>5</v>
+      </c>
+      <c r="D99" s="16"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
       <c r="I99" s="18"/>
       <c r="J99" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J99:J130" si="4">SUM(E99:I99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C100" s="17">
         <v>5</v>
       </c>
       <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
       <c r="J100" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C101" s="16">
         <v>5</v>
       </c>
       <c r="D101" s="16"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
       <c r="J101" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C102" s="17">
         <v>5</v>
@@ -3920,63 +4059,63 @@
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
       <c r="J102" s="16">
-        <f>SUM(E102:I102)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
-        <v>177</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" s="17">
-        <v>5</v>
-      </c>
-      <c r="D103" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="C103" s="16">
+        <v>5</v>
+      </c>
+      <c r="D103" s="16"/>
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
       <c r="I103" s="18"/>
       <c r="J103" s="16">
-        <f>SUM(E103:I103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C104" s="16">
-        <v>5</v>
-      </c>
-      <c r="D104" s="16"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
+        <v>126</v>
+      </c>
+      <c r="C104" s="17">
+        <v>5</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
       <c r="J104" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C105" s="17">
-        <v>5</v>
-      </c>
-      <c r="D105" s="17"/>
+        <v>128</v>
+      </c>
+      <c r="C105" s="16">
+        <v>5</v>
+      </c>
+      <c r="D105" s="16"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
@@ -3987,17 +4126,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C106" s="16">
-        <v>5</v>
-      </c>
-      <c r="D106" s="16"/>
+        <v>130</v>
+      </c>
+      <c r="C106" s="17">
+        <v>5</v>
+      </c>
+      <c r="D106" s="17"/>
       <c r="E106" s="17"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
@@ -4008,12 +4147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C107" s="17">
         <v>5</v>
@@ -4029,12 +4168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C108" s="16">
         <v>5</v>
@@ -4050,17 +4189,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C109" s="17">
-        <v>5</v>
-      </c>
-      <c r="D109" s="17"/>
+        <v>102</v>
+      </c>
+      <c r="C109" s="16">
+        <v>5</v>
+      </c>
+      <c r="D109" s="16"/>
       <c r="E109" s="18"/>
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
@@ -4071,12 +4210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="C110" s="17">
         <v>5</v>
@@ -4088,163 +4227,163 @@
       <c r="H110" s="18"/>
       <c r="I110" s="18"/>
       <c r="J110" s="16">
-        <f t="shared" ref="J110:J135" si="5">SUM(E110:I110)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C111" s="16">
-        <v>5</v>
-      </c>
-      <c r="D111" s="16"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
+        <v>138</v>
+      </c>
+      <c r="C111" s="17">
+        <v>5</v>
+      </c>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
       <c r="J111" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="C112" s="16">
         <v>5</v>
       </c>
       <c r="D112" s="16"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
       <c r="J112" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="C113" s="17">
         <v>5</v>
       </c>
       <c r="D113" s="17"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
       <c r="J113" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="C114" s="16">
         <v>5</v>
       </c>
       <c r="D114" s="16"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
       <c r="J114" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C115" s="16">
-        <v>5</v>
-      </c>
-      <c r="D115" s="16"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="C115" s="17">
+        <v>5</v>
+      </c>
+      <c r="D115" s="17"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
       <c r="J115" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="11" t="s">
-        <v>255</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C116" s="16">
         <v>5</v>
       </c>
       <c r="D116" s="16"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
       <c r="J116" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C117" s="16">
-        <v>5</v>
-      </c>
-      <c r="D117" s="16"/>
+        <v>152</v>
+      </c>
+      <c r="C117" s="17">
+        <v>5</v>
+      </c>
+      <c r="D117" s="17"/>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
       <c r="I117" s="18"/>
       <c r="J117" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
-        <v>250</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C118" s="16">
         <v>5</v>
@@ -4256,37 +4395,37 @@
       <c r="H118" s="18"/>
       <c r="I118" s="18"/>
       <c r="J118" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
-        <v>251</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C119" s="17">
-        <v>5</v>
-      </c>
-      <c r="D119" s="17"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
+        <v>156</v>
+      </c>
+      <c r="C119" s="16">
+        <v>5</v>
+      </c>
+      <c r="D119" s="16"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
       <c r="J119" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
-        <v>232</v>
+        <v>158</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="C120" s="17">
         <v>5</v>
@@ -4298,163 +4437,163 @@
       <c r="H120" s="18"/>
       <c r="I120" s="18"/>
       <c r="J120" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C121" s="16">
-        <v>5</v>
-      </c>
-      <c r="D121" s="16"/>
+        <v>161</v>
+      </c>
+      <c r="C121" s="17">
+        <v>5</v>
+      </c>
+      <c r="D121" s="17"/>
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
       <c r="J121" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C122" s="17">
-        <v>5</v>
-      </c>
-      <c r="D122" s="17"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
+        <v>164</v>
+      </c>
+      <c r="C122" s="16">
+        <v>5</v>
+      </c>
+      <c r="D122" s="16"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
       <c r="J122" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C123" s="16">
-        <v>5</v>
-      </c>
-      <c r="D123" s="16"/>
+        <v>174</v>
+      </c>
+      <c r="C123" s="17">
+        <v>5</v>
+      </c>
+      <c r="D123" s="17"/>
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
       <c r="H123" s="18"/>
       <c r="I123" s="18"/>
       <c r="J123" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="10" t="s">
-        <v>242</v>
+        <f>SUM(E123:I123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="s">
+        <v>177</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C124" s="16">
-        <v>5</v>
-      </c>
-      <c r="D124" s="16"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="17"/>
+        <v>178</v>
+      </c>
+      <c r="C124" s="17">
+        <v>5</v>
+      </c>
+      <c r="D124" s="17"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
       <c r="J124" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f>SUM(E124:I124)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C125" s="17">
-        <v>5</v>
-      </c>
-      <c r="D125" s="17"/>
+        <v>172</v>
+      </c>
+      <c r="C125" s="16">
+        <v>5</v>
+      </c>
+      <c r="D125" s="16"/>
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
       <c r="G125" s="18"/>
       <c r="H125" s="18"/>
       <c r="I125" s="18"/>
       <c r="J125" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C126" s="16">
-        <v>5</v>
-      </c>
-      <c r="D126" s="16"/>
+        <v>170</v>
+      </c>
+      <c r="C126" s="17">
+        <v>5</v>
+      </c>
+      <c r="D126" s="17"/>
       <c r="E126" s="18"/>
       <c r="F126" s="18"/>
       <c r="G126" s="18"/>
       <c r="H126" s="18"/>
       <c r="I126" s="18"/>
       <c r="J126" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C127" s="17">
-        <v>5</v>
-      </c>
-      <c r="D127" s="17"/>
+        <v>168</v>
+      </c>
+      <c r="C127" s="16">
+        <v>5</v>
+      </c>
+      <c r="D127" s="16"/>
       <c r="E127" s="17"/>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
       <c r="J127" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C128" s="17">
         <v>5</v>
@@ -4466,84 +4605,84 @@
       <c r="H128" s="18"/>
       <c r="I128" s="18"/>
       <c r="J128" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C129" s="17">
-        <v>5</v>
-      </c>
-      <c r="D129" s="17"/>
+        <v>176</v>
+      </c>
+      <c r="C129" s="16">
+        <v>5</v>
+      </c>
+      <c r="D129" s="16"/>
       <c r="E129" s="18"/>
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
       <c r="H129" s="18"/>
       <c r="I129" s="18"/>
       <c r="J129" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C130" s="17">
         <v>5</v>
       </c>
       <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
       <c r="J130" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
-        <v>266</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C131" s="16">
-        <v>5</v>
-      </c>
-      <c r="D131" s="16"/>
+        <v>182</v>
+      </c>
+      <c r="C131" s="17">
+        <v>5</v>
+      </c>
+      <c r="D131" s="17"/>
       <c r="E131" s="18"/>
       <c r="F131" s="18"/>
       <c r="G131" s="18"/>
       <c r="H131" s="18"/>
       <c r="I131" s="18"/>
       <c r="J131" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J131:J156" si="5">SUM(E131:I131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C132" s="17">
-        <v>5</v>
-      </c>
-      <c r="D132" s="17"/>
+        <v>180</v>
+      </c>
+      <c r="C132" s="16">
+        <v>5</v>
+      </c>
+      <c r="D132" s="16"/>
       <c r="E132" s="18"/>
       <c r="F132" s="18"/>
       <c r="G132" s="18"/>
@@ -4554,12 +4693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="11" t="s">
-        <v>268</v>
+    <row r="133" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="C133" s="16">
         <v>5</v>
@@ -4575,15 +4714,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C134" s="21">
-        <v>6.5</v>
+        <v>229</v>
+      </c>
+      <c r="C134" s="17">
+        <v>5</v>
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="18"/>
@@ -4596,296 +4735,485 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C135" s="22">
-        <v>6.5</v>
+        <v>231</v>
+      </c>
+      <c r="C135" s="16">
+        <v>5</v>
       </c>
       <c r="D135" s="16"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
       <c r="J135" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="10"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="21"/>
-      <c r="D136" s="17"/>
+    <row r="136" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C136" s="16">
+        <v>5</v>
+      </c>
+      <c r="D136" s="16"/>
       <c r="E136" s="17"/>
       <c r="F136" s="17"/>
       <c r="G136" s="17"/>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
-      <c r="J136" s="16"/>
-    </row>
-    <row r="137" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="10"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="22"/>
+      <c r="J136" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A137" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C137" s="16">
+        <v>5</v>
+      </c>
       <c r="D137" s="16"/>
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
       <c r="G137" s="18"/>
       <c r="H137" s="18"/>
       <c r="I137" s="18"/>
-      <c r="J137" s="16"/>
-    </row>
-    <row r="138" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="10"/>
-      <c r="B138" s="8"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="17"/>
+      <c r="J137" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="16">
+        <v>5</v>
+      </c>
+      <c r="D138" s="16"/>
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
       <c r="G138" s="18"/>
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
-      <c r="J138" s="16"/>
-    </row>
-    <row r="139" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="11"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="22"/>
+      <c r="J138" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C139" s="16">
+        <v>5</v>
+      </c>
       <c r="D139" s="16"/>
       <c r="E139" s="18"/>
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
       <c r="H139" s="18"/>
       <c r="I139" s="18"/>
-      <c r="J139" s="16"/>
-    </row>
-    <row r="140" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="10"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="21"/>
+      <c r="J139" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C140" s="17">
+        <v>5</v>
+      </c>
       <c r="D140" s="17"/>
       <c r="E140" s="18"/>
       <c r="F140" s="18"/>
       <c r="G140" s="18"/>
       <c r="H140" s="18"/>
       <c r="I140" s="18"/>
-      <c r="J140" s="16"/>
-    </row>
-    <row r="141" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="10"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="16"/>
+      <c r="J140" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C141" s="17">
+        <v>5</v>
+      </c>
+      <c r="D141" s="17"/>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
       <c r="G141" s="18"/>
       <c r="H141" s="18"/>
       <c r="I141" s="18"/>
-      <c r="J141" s="16"/>
-    </row>
-    <row r="142" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="10"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="21"/>
-      <c r="D142" s="17"/>
+      <c r="J141" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C142" s="16">
+        <v>5</v>
+      </c>
+      <c r="D142" s="16"/>
       <c r="E142" s="17"/>
       <c r="F142" s="17"/>
       <c r="G142" s="17"/>
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
-      <c r="J142" s="16"/>
-    </row>
-    <row r="143" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="10"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="22"/>
-      <c r="D143" s="16"/>
+      <c r="J142" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" s="17">
+        <v>5</v>
+      </c>
+      <c r="D143" s="17"/>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
       <c r="G143" s="18"/>
       <c r="H143" s="18"/>
       <c r="I143" s="18"/>
-      <c r="J143" s="16"/>
-    </row>
-    <row r="144" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="10"/>
-      <c r="B144" s="8"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="17"/>
+      <c r="J143" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C144" s="16">
+        <v>5</v>
+      </c>
+      <c r="D144" s="16"/>
       <c r="E144" s="18"/>
       <c r="F144" s="18"/>
       <c r="G144" s="18"/>
       <c r="H144" s="18"/>
       <c r="I144" s="18"/>
-      <c r="J144" s="16"/>
-    </row>
-    <row r="145" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="11"/>
-      <c r="B145" s="8"/>
-      <c r="C145" s="22"/>
+      <c r="J144" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C145" s="16">
+        <v>5</v>
+      </c>
       <c r="D145" s="16"/>
       <c r="E145" s="17"/>
       <c r="F145" s="17"/>
       <c r="G145" s="17"/>
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
-      <c r="J145" s="16"/>
-    </row>
-    <row r="146" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="10"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="21"/>
+      <c r="J145" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C146" s="17">
+        <v>5</v>
+      </c>
       <c r="D146" s="17"/>
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
       <c r="G146" s="18"/>
       <c r="H146" s="18"/>
       <c r="I146" s="18"/>
-      <c r="J146" s="16"/>
-    </row>
-    <row r="147" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="10"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="22"/>
+      <c r="J146" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C147" s="16">
+        <v>5</v>
+      </c>
       <c r="D147" s="16"/>
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
       <c r="H147" s="18"/>
       <c r="I147" s="18"/>
-      <c r="J147" s="16"/>
-    </row>
-    <row r="148" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="10"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="21"/>
+      <c r="J147" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C148" s="17">
+        <v>5</v>
+      </c>
       <c r="D148" s="17"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
-      <c r="J148" s="16"/>
-    </row>
-    <row r="149" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="16"/>
-    </row>
-    <row r="150" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="11"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="21"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="17">
+        <v>5</v>
+      </c>
+      <c r="D149" s="17"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150" s="17">
+        <v>5</v>
+      </c>
       <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="16"/>
-    </row>
-    <row r="151" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="10"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="16"/>
-    </row>
-    <row r="152" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="10"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="21"/>
-      <c r="D152" s="17"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C151" s="17">
+        <v>5</v>
+      </c>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A152" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C152" s="16">
+        <v>5</v>
+      </c>
+      <c r="D152" s="16"/>
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
       <c r="I152" s="18"/>
-      <c r="J152" s="16"/>
-    </row>
-    <row r="153" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="10"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="22"/>
-      <c r="D153" s="16"/>
+      <c r="J152" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C153" s="17">
+        <v>5</v>
+      </c>
+      <c r="D153" s="17"/>
       <c r="E153" s="18"/>
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
       <c r="H153" s="18"/>
       <c r="I153" s="18"/>
-      <c r="J153" s="16"/>
-    </row>
-    <row r="154" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="10"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-      <c r="I154" s="17"/>
-      <c r="J154" s="16"/>
-    </row>
-    <row r="155" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="10"/>
-      <c r="B155" s="8"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="16"/>
-    </row>
-    <row r="156" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="10"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="21"/>
-      <c r="D156" s="17"/>
+      <c r="J153" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A154" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C154" s="16">
+        <v>5</v>
+      </c>
+      <c r="D154" s="16"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C155" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="D155" s="17"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C156" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="D156" s="16"/>
       <c r="E156" s="18"/>
       <c r="F156" s="18"/>
       <c r="G156" s="18"/>
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
-      <c r="J156" s="16"/>
-    </row>
-    <row r="157" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J156" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="10"/>
       <c r="B157" s="8"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
+      <c r="C157" s="21"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
       <c r="J157" s="16"/>
     </row>
-    <row r="158" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="10"/>
       <c r="B158" s="8"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="17"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="16"/>
       <c r="E158" s="18"/>
       <c r="F158" s="18"/>
       <c r="G158" s="18"/>
@@ -4896,8 +5224,8 @@
     <row r="159" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10"/>
       <c r="B159" s="8"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="16"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="17"/>
       <c r="E159" s="18"/>
       <c r="F159" s="18"/>
       <c r="G159" s="18"/>
@@ -4906,22 +5234,22 @@
       <c r="J159" s="16"/>
     </row>
     <row r="160" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="10"/>
+      <c r="A160" s="11"/>
       <c r="B160" s="8"/>
-      <c r="C160" s="21"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="18"/>
+      <c r="F160" s="18"/>
+      <c r="G160" s="18"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
       <c r="J160" s="16"/>
     </row>
     <row r="161" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10"/>
       <c r="B161" s="8"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="16"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="17"/>
       <c r="E161" s="18"/>
       <c r="F161" s="18"/>
       <c r="G161" s="18"/>
@@ -4932,8 +5260,8 @@
     <row r="162" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10"/>
       <c r="B162" s="8"/>
-      <c r="C162" s="21"/>
-      <c r="D162" s="17"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="16"/>
       <c r="E162" s="18"/>
       <c r="F162" s="18"/>
       <c r="G162" s="18"/>
@@ -4944,20 +5272,20 @@
     <row r="163" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="8"/>
-      <c r="C163" s="22"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
+      <c r="C163" s="21"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
       <c r="J163" s="16"/>
     </row>
     <row r="164" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="8"/>
-      <c r="C164" s="21"/>
-      <c r="D164" s="17"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="16"/>
       <c r="E164" s="18"/>
       <c r="F164" s="18"/>
       <c r="G164" s="18"/>
@@ -4968,8 +5296,8 @@
     <row r="165" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10"/>
       <c r="B165" s="8"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="16"/>
+      <c r="C165" s="21"/>
+      <c r="D165" s="17"/>
       <c r="E165" s="18"/>
       <c r="F165" s="18"/>
       <c r="G165" s="18"/>
@@ -4978,22 +5306,22 @@
       <c r="J165" s="16"/>
     </row>
     <row r="166" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="10"/>
+      <c r="A166" s="11"/>
       <c r="B166" s="8"/>
-      <c r="C166" s="21"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="18"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
       <c r="J166" s="16"/>
     </row>
     <row r="167" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10"/>
       <c r="B167" s="8"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="16"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="17"/>
       <c r="E167" s="18"/>
       <c r="F167" s="18"/>
       <c r="G167" s="18"/>
@@ -5004,8 +5332,8 @@
     <row r="168" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
       <c r="B168" s="8"/>
-      <c r="C168" s="21"/>
-      <c r="D168" s="17"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="16"/>
       <c r="E168" s="18"/>
       <c r="F168" s="18"/>
       <c r="G168" s="18"/>
@@ -5016,8 +5344,8 @@
     <row r="169" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169" s="8"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="16"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="17"/>
       <c r="E169" s="18"/>
       <c r="F169" s="18"/>
       <c r="G169" s="18"/>
@@ -5026,34 +5354,34 @@
       <c r="J169" s="16"/>
     </row>
     <row r="170" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="10"/>
+      <c r="A170" s="11"/>
       <c r="B170" s="8"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
-      <c r="I170" s="18"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
       <c r="J170" s="16"/>
     </row>
     <row r="171" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="10"/>
+      <c r="A171" s="11"/>
       <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
-      <c r="I171" s="18"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
       <c r="J171" s="16"/>
     </row>
     <row r="172" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10"/>
       <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="7"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="16"/>
       <c r="E172" s="18"/>
       <c r="F172" s="18"/>
       <c r="G172" s="18"/>
@@ -5064,8 +5392,8 @@
     <row r="173" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10"/>
       <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="7"/>
+      <c r="C173" s="21"/>
+      <c r="D173" s="17"/>
       <c r="E173" s="18"/>
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
@@ -5076,8 +5404,8 @@
     <row r="174" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10"/>
       <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="6"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="16"/>
       <c r="E174" s="18"/>
       <c r="F174" s="18"/>
       <c r="G174" s="18"/>
@@ -5088,32 +5416,32 @@
     <row r="175" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="10"/>
       <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
-      <c r="I175" s="18"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
       <c r="J175" s="16"/>
     </row>
     <row r="176" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="10"/>
       <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
-      <c r="I176" s="18"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
       <c r="J176" s="16"/>
     </row>
     <row r="177" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10"/>
       <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="7"/>
+      <c r="C177" s="21"/>
+      <c r="D177" s="17"/>
       <c r="E177" s="18"/>
       <c r="F177" s="18"/>
       <c r="G177" s="18"/>
@@ -5122,10 +5450,10 @@
       <c r="J177" s="16"/>
     </row>
     <row r="178" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="11"/>
+      <c r="A178" s="10"/>
       <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="7"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="16"/>
       <c r="E178" s="18"/>
       <c r="F178" s="18"/>
       <c r="G178" s="18"/>
@@ -5134,10 +5462,10 @@
       <c r="J178" s="16"/>
     </row>
     <row r="179" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="11"/>
+      <c r="A179" s="10"/>
       <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="7"/>
+      <c r="C179" s="21"/>
+      <c r="D179" s="17"/>
       <c r="E179" s="18"/>
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
@@ -5148,8 +5476,8 @@
     <row r="180" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="10"/>
       <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="6"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="16"/>
       <c r="E180" s="18"/>
       <c r="F180" s="18"/>
       <c r="G180" s="18"/>
@@ -5158,583 +5486,848 @@
       <c r="J180" s="16"/>
     </row>
     <row r="181" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="11"/>
+      <c r="A181" s="10"/>
       <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
+      <c r="C181" s="21"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
       <c r="J181" s="16"/>
     </row>
     <row r="182" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10"/>
       <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="18"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="18"/>
+      <c r="H182" s="18"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="16"/>
     </row>
     <row r="183" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="10"/>
       <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
+      <c r="C183" s="21"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="18"/>
+      <c r="F183" s="18"/>
+      <c r="G183" s="18"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="16"/>
     </row>
     <row r="184" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="10"/>
       <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="18"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
+      <c r="J184" s="16"/>
     </row>
     <row r="185" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="11"/>
+      <c r="A185" s="10"/>
       <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="18"/>
+      <c r="F185" s="18"/>
+      <c r="G185" s="18"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="16"/>
     </row>
     <row r="186" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10"/>
       <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+      <c r="G186" s="18"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="16"/>
     </row>
     <row r="187" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="11"/>
+      <c r="A187" s="10"/>
       <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="19"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="18"/>
+      <c r="G187" s="18"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="18"/>
+      <c r="J187" s="16"/>
     </row>
     <row r="188" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="10"/>
       <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="19"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="19"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="18"/>
+      <c r="F188" s="18"/>
+      <c r="G188" s="18"/>
+      <c r="H188" s="18"/>
+      <c r="I188" s="18"/>
+      <c r="J188" s="16"/>
     </row>
     <row r="189" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
+      <c r="C189" s="21"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="16"/>
     </row>
     <row r="190" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="11"/>
+      <c r="A190" s="10"/>
       <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="18"/>
+      <c r="F190" s="18"/>
+      <c r="G190" s="18"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="18"/>
+      <c r="J190" s="16"/>
     </row>
     <row r="191" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
       <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="18"/>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="16"/>
     </row>
     <row r="192" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="11"/>
+      <c r="A192" s="10"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="7"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
+      <c r="E192" s="18"/>
+      <c r="F192" s="18"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="18"/>
+      <c r="J192" s="16"/>
     </row>
     <row r="193" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="7"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="18"/>
+      <c r="G193" s="18"/>
+      <c r="H193" s="18"/>
+      <c r="I193" s="18"/>
+      <c r="J193" s="16"/>
     </row>
     <row r="194" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="7"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="18"/>
+      <c r="H194" s="18"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="16"/>
     </row>
     <row r="195" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="11"/>
+      <c r="A195" s="10"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="19"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="18"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="18"/>
+      <c r="H195" s="18"/>
+      <c r="I195" s="18"/>
+      <c r="J195" s="16"/>
     </row>
     <row r="196" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="19"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="18"/>
+      <c r="F196" s="18"/>
+      <c r="G196" s="18"/>
+      <c r="H196" s="18"/>
+      <c r="I196" s="18"/>
+      <c r="J196" s="16"/>
     </row>
     <row r="197" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="10"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="7"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="19"/>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="19"/>
+      <c r="E197" s="18"/>
+      <c r="F197" s="18"/>
+      <c r="G197" s="18"/>
+      <c r="H197" s="18"/>
+      <c r="I197" s="18"/>
+      <c r="J197" s="16"/>
     </row>
     <row r="198" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="11"/>
+      <c r="A198" s="10"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="7"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="19"/>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="19"/>
+      <c r="E198" s="18"/>
+      <c r="F198" s="18"/>
+      <c r="G198" s="18"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="18"/>
+      <c r="J198" s="16"/>
     </row>
     <row r="199" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="7"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="19"/>
-      <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
+      <c r="E199" s="18"/>
+      <c r="F199" s="18"/>
+      <c r="G199" s="18"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="18"/>
+      <c r="J199" s="16"/>
     </row>
     <row r="200" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="7"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19"/>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="19"/>
+      <c r="E200" s="18"/>
+      <c r="F200" s="18"/>
+      <c r="G200" s="18"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="18"/>
+      <c r="J200" s="16"/>
     </row>
     <row r="201" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="11"/>
+      <c r="A201" s="10"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="19"/>
-      <c r="G201" s="19"/>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="19"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="12"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+      <c r="J201" s="16"/>
+    </row>
+    <row r="202" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="11"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
+      <c r="J202" s="16"/>
+    </row>
+    <row r="203" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="10"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="19"/>
+    </row>
+    <row r="204" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="10"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="19"/>
+    </row>
+    <row r="205" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="10"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="19"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="19"/>
+    </row>
+    <row r="206" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="11"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="19"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="19"/>
+    </row>
+    <row r="207" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="10"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="19"/>
+    </row>
+    <row r="208" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="11"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="19"/>
+    </row>
+    <row r="209" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="10"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="19"/>
+    </row>
+    <row r="210" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="10"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="19"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="19"/>
+    </row>
+    <row r="211" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="11"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
+    </row>
+    <row r="212" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="10"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="19"/>
+    </row>
+    <row r="213" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="11"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="19"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="19"/>
+    </row>
+    <row r="214" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="10"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+    </row>
+    <row r="215" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="10"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="19"/>
+      <c r="F215" s="19"/>
+      <c r="G215" s="19"/>
+      <c r="H215" s="19"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="19"/>
+    </row>
+    <row r="216" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="11"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="19"/>
+      <c r="H216" s="19"/>
+      <c r="I216" s="19"/>
+      <c r="J216" s="19"/>
+    </row>
+    <row r="217" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="10"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="19"/>
+    </row>
+    <row r="218" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="10"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="19"/>
+      <c r="G218" s="19"/>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="19"/>
+    </row>
+    <row r="219" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="11"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="19"/>
+      <c r="J219" s="19"/>
+    </row>
+    <row r="220" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="11"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="19"/>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="19"/>
+    </row>
+    <row r="221" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="11"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="19"/>
+      <c r="F221" s="19"/>
+      <c r="G221" s="19"/>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="19"/>
+    </row>
+    <row r="222" spans="1:10" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="11"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="19"/>
+      <c r="F222" s="19"/>
+      <c r="G222" s="19"/>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="19"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A230:I237">
-    <sortCondition ref="C230:C237"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A251:I258">
+    <sortCondition ref="C251:C258"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A13:A24 B5:B24 A72:B72 A66:A69 A114:A128 A71 A70:B70 A25:B64 A129:B160 A3:B4 A73:A112 B65:B170">
-    <cfRule type="cellIs" dxfId="51" priority="160" operator="equal">
+  <conditionalFormatting sqref="A34:A45 B26:B45 A93:B93 A87:A90 A135:A149 A92 A91:B91 A46:B85 A150:B181 A24:B25 A94:A133 B86:B191">
+    <cfRule type="cellIs" dxfId="52" priority="161" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A203:A1048576">
-    <cfRule type="cellIs" dxfId="50" priority="148" operator="equal">
+  <conditionalFormatting sqref="A224:A1048576">
+    <cfRule type="cellIs" dxfId="51" priority="149" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A202">
-    <cfRule type="cellIs" dxfId="49" priority="118" operator="equal">
+  <conditionalFormatting sqref="A223">
+    <cfRule type="cellIs" dxfId="50" priority="119" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A165:A201 B171:C201">
+  <conditionalFormatting sqref="A186:A222 B192:C222">
+    <cfRule type="cellIs" dxfId="49" priority="109" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
     <cfRule type="cellIs" dxfId="48" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="47" priority="107" operator="equal">
+  <conditionalFormatting sqref="A26:B33">
+    <cfRule type="cellIs" dxfId="47" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B12">
+  <conditionalFormatting sqref="A134">
     <cfRule type="cellIs" dxfId="46" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="cellIs" dxfId="45" priority="102" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
-    <cfRule type="cellIs" dxfId="44" priority="99" operator="equal">
+  <conditionalFormatting sqref="B134">
+    <cfRule type="cellIs" dxfId="45" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="43" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B166">
-    <cfRule type="cellIs" dxfId="42" priority="87" operator="equal">
+  <conditionalFormatting sqref="B187">
+    <cfRule type="cellIs" dxfId="43" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A161:A164">
+  <conditionalFormatting sqref="A182:A185">
+    <cfRule type="cellIs" dxfId="42" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B182">
     <cfRule type="cellIs" dxfId="41" priority="93" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B161">
+  <conditionalFormatting sqref="B183">
     <cfRule type="cellIs" dxfId="40" priority="92" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B162">
+  <conditionalFormatting sqref="B184">
     <cfRule type="cellIs" dxfId="39" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B163">
+  <conditionalFormatting sqref="B185">
     <cfRule type="cellIs" dxfId="38" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B164">
+  <conditionalFormatting sqref="B186">
     <cfRule type="cellIs" dxfId="37" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B165">
-    <cfRule type="cellIs" dxfId="36" priority="88" operator="equal">
+  <conditionalFormatting sqref="B195:C195">
+    <cfRule type="cellIs" dxfId="36" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B174:C174">
-    <cfRule type="cellIs" dxfId="35" priority="79" operator="equal">
+  <conditionalFormatting sqref="B188">
+    <cfRule type="cellIs" dxfId="35" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167">
+  <conditionalFormatting sqref="B189">
     <cfRule type="cellIs" dxfId="34" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B168">
+  <conditionalFormatting sqref="B190">
     <cfRule type="cellIs" dxfId="33" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B169">
+  <conditionalFormatting sqref="B191">
     <cfRule type="cellIs" dxfId="32" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B170">
+  <conditionalFormatting sqref="B192:C192">
     <cfRule type="cellIs" dxfId="31" priority="83" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B171:C171">
+  <conditionalFormatting sqref="B193:C193">
     <cfRule type="cellIs" dxfId="30" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B172:C172">
+  <conditionalFormatting sqref="B194:C194">
     <cfRule type="cellIs" dxfId="29" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B173:C173">
-    <cfRule type="cellIs" dxfId="28" priority="80" operator="equal">
+  <conditionalFormatting sqref="B196:C196">
+    <cfRule type="cellIs" dxfId="28" priority="79" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B175:C175">
+  <conditionalFormatting sqref="B197:C197">
     <cfRule type="cellIs" dxfId="27" priority="78" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B176:C176">
+  <conditionalFormatting sqref="B198:C198">
     <cfRule type="cellIs" dxfId="26" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B177:C177">
+  <conditionalFormatting sqref="B199:C199">
     <cfRule type="cellIs" dxfId="25" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178:C178">
+  <conditionalFormatting sqref="B200:C200">
     <cfRule type="cellIs" dxfId="24" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B179:C179">
+  <conditionalFormatting sqref="B201:C201">
     <cfRule type="cellIs" dxfId="23" priority="74" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B180:C180">
+  <conditionalFormatting sqref="B202:C202">
     <cfRule type="cellIs" dxfId="22" priority="73" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B181:C181">
+  <conditionalFormatting sqref="B203:C203">
     <cfRule type="cellIs" dxfId="21" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B182:C182">
+  <conditionalFormatting sqref="B204:C204">
     <cfRule type="cellIs" dxfId="20" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B183:C183">
+  <conditionalFormatting sqref="B205:C205">
     <cfRule type="cellIs" dxfId="19" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B184:C184">
+  <conditionalFormatting sqref="B206:C206">
     <cfRule type="cellIs" dxfId="18" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B185:C185">
+  <conditionalFormatting sqref="B207:C207">
     <cfRule type="cellIs" dxfId="17" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B186:C186">
+  <conditionalFormatting sqref="B208:C208">
     <cfRule type="cellIs" dxfId="16" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B187:C187">
+  <conditionalFormatting sqref="B209:C209">
     <cfRule type="cellIs" dxfId="15" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B188:C188">
+  <conditionalFormatting sqref="B210:C210">
     <cfRule type="cellIs" dxfId="14" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B189:C189">
+  <conditionalFormatting sqref="B211:C211">
     <cfRule type="cellIs" dxfId="13" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B190:C190">
+  <conditionalFormatting sqref="B212:C212">
     <cfRule type="cellIs" dxfId="12" priority="63" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B191:C191">
+  <conditionalFormatting sqref="B213:C213">
     <cfRule type="cellIs" dxfId="11" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B192:C192">
+  <conditionalFormatting sqref="B214:C214">
     <cfRule type="cellIs" dxfId="10" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B193:C193">
+  <conditionalFormatting sqref="B215:C215">
     <cfRule type="cellIs" dxfId="9" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B194:C194">
+  <conditionalFormatting sqref="B216:C216">
     <cfRule type="cellIs" dxfId="8" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B195:C195">
+  <conditionalFormatting sqref="B217:C217">
     <cfRule type="cellIs" dxfId="7" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B196:C196">
+  <conditionalFormatting sqref="B218:C218">
     <cfRule type="cellIs" dxfId="6" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B197:C197">
+  <conditionalFormatting sqref="B219:C219">
     <cfRule type="cellIs" dxfId="5" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B198:C198">
+  <conditionalFormatting sqref="B220:C220">
     <cfRule type="cellIs" dxfId="4" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B199:C199">
+  <conditionalFormatting sqref="B221:C221">
     <cfRule type="cellIs" dxfId="3" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B200:C200">
+  <conditionalFormatting sqref="B222:C222">
     <cfRule type="cellIs" dxfId="2" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B201:C201">
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="equal">
+  <conditionalFormatting sqref="A86">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="A3:B23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B23" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B39" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B40" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B41" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B42" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B43" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B68" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B115" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B113" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B114" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B120" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B121" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B122" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B123" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B73" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B124" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B125" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B126" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B127" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B118" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B119" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B58" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B59" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B116" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B62" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B63" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B128" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B87" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B71" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B72" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B129" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B60" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B61" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B64" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B130" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B131" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B132" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B133" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B134" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B135" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B39" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B41" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B42" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B43" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B44" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B45" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B47" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B59" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B60" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B61" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B62" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B63" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B64" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B89" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B136" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B134" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B135" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B141" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B142" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B143" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B144" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B94" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B145" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B146" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B147" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B148" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B139" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B140" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B79" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B80" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B137" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B83" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B84" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B149" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B108" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B92" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B93" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B150" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B81" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B82" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B85" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B151" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B152" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B153" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B154" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B155" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B156" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B9" r:id="rId52" xr:uid="{733154CC-5A1C-48D6-A866-2A0F9F1882B1}"/>
+    <hyperlink ref="B10" r:id="rId53" xr:uid="{DF600312-94F1-44C0-803B-9CBB3CE3EF71}"/>
+    <hyperlink ref="B15" r:id="rId54" xr:uid="{B453927C-9392-44F6-8851-15C69B8EEDFC}"/>
+    <hyperlink ref="B22" r:id="rId55" xr:uid="{BB51DFF2-ACDD-4FCF-BCAA-52EBF7E6E5F6}"/>
+    <hyperlink ref="B23" r:id="rId56" xr:uid="{41EC87D2-A495-4502-946B-D43704E09B42}"/>
+    <hyperlink ref="B3" r:id="rId57" xr:uid="{BF505485-FCDE-4F11-8FF0-7631A1D7F936}"/>
+    <hyperlink ref="B5" r:id="rId58" xr:uid="{6E438D8D-4BCE-45D5-9FC0-80C13168F30D}"/>
+    <hyperlink ref="B7" r:id="rId59" xr:uid="{C9E72533-9C92-4DC0-81B6-EB2070FD5EFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>